--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="examples" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,23 +30,26 @@
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <rFont val=""/>
-            <family val="1"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">button
-check
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">geometry
+button
 entry
 label
 list
-options
+text
+scrollx
+scrolly
+check
 radio
 spin
-Scrollbar
-------------
-Filedialog
-Messagebox
+options
+-------
+messagebox
+filedialog
 </t>
         </r>
       </text>
@@ -95,6 +99,102 @@
       </text>
     </comment>
     <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N+S+E+W
+Or some combination.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">button
+entry
+label
+scrollbar
+list
+text
+check
+radio
+spin
+options
+geometry
+-------
+messagebox
+filedialog
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The Widget
+object variable
+name.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The TEXT of a button
+label
+or entry widget
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The callback function name, or the Textvariable name.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">Widget</t>
   </si>
@@ -143,16 +243,64 @@
     <t xml:space="preserve">Sticky</t>
   </si>
   <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on_btn_save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvar_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrollbar</t>
+  </si>
+  <si>
     <t xml:space="preserve">list</t>
   </si>
   <si>
-    <t xml:space="preserve">scrollbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry</t>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">messagebox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filedialog</t>
   </si>
 </sst>
 </file>
@@ -162,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,8 +355,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -254,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +437,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,12 +477,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,44 +528,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -397,4 +545,291 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:J16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="12.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -37,6 +37,7 @@
           </rPr>
           <t xml:space="preserve">geometry
 button
+combo
 entry
 label
 list
@@ -48,9 +49,9 @@
 spin
 options
 -------
+frames
 messagebox
-filedialog
-</t>
+filedialog</t>
         </r>
       </text>
     </comment>
@@ -482,7 +483,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,7 +565,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="9.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="12.64"/>
